--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il13-Il13ra2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il13-Il13ra2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Il13</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +516,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,40 +537,40 @@
         <v>0.687967</v>
       </c>
       <c r="I2">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2837743333333333</v>
+        <v>0.4472413333333334</v>
       </c>
       <c r="N2">
-        <v>0.8513229999999999</v>
+        <v>1.341724</v>
       </c>
       <c r="O2">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690723</v>
       </c>
       <c r="P2">
-        <v>0.3291950156124629</v>
+        <v>0.4361236687690722</v>
       </c>
       <c r="Q2">
-        <v>0.06507579226011109</v>
+        <v>0.1025624261231111</v>
       </c>
       <c r="R2">
-        <v>0.5856821303409999</v>
+        <v>0.9230618351080001</v>
       </c>
       <c r="S2">
-        <v>0.2590503736975829</v>
+        <v>0.4361236687690723</v>
       </c>
       <c r="T2">
-        <v>0.2788565601304419</v>
+        <v>0.4361236687690722</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +578,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -602,10 +599,10 @@
         <v>0.687967</v>
       </c>
       <c r="I3">
-        <v>0.7869207047853479</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8470862160887611</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,10 +617,10 @@
         <v>1.734752</v>
       </c>
       <c r="O3">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="P3">
-        <v>0.6708049843875371</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="Q3">
         <v>0.1326057921315555</v>
@@ -632,134 +629,10 @@
         <v>1.193452129184</v>
       </c>
       <c r="S3">
-        <v>0.527870331087765</v>
+        <v>0.5638763312309278</v>
       </c>
       <c r="T3">
-        <v>0.5682296559583193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.5</v>
-      </c>
-      <c r="G4">
-        <v>0.062095</v>
-      </c>
-      <c r="H4">
-        <v>0.12419</v>
-      </c>
-      <c r="I4">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J4">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.2837743333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.8513229999999999</v>
-      </c>
-      <c r="O4">
-        <v>0.3291950156124629</v>
-      </c>
-      <c r="P4">
-        <v>0.3291950156124629</v>
-      </c>
-      <c r="Q4">
-        <v>0.01762096722833333</v>
-      </c>
-      <c r="R4">
-        <v>0.10572580337</v>
-      </c>
-      <c r="S4">
-        <v>0.07014464191488</v>
-      </c>
-      <c r="T4">
-        <v>0.05033845548202105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.062095</v>
-      </c>
-      <c r="H5">
-        <v>0.12419</v>
-      </c>
-      <c r="I5">
-        <v>0.2130792952146521</v>
-      </c>
-      <c r="J5">
-        <v>0.1529137839112388</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.5782506666666666</v>
-      </c>
-      <c r="N5">
-        <v>1.734752</v>
-      </c>
-      <c r="O5">
-        <v>0.6708049843875371</v>
-      </c>
-      <c r="P5">
-        <v>0.6708049843875371</v>
-      </c>
-      <c r="Q5">
-        <v>0.03590647514666667</v>
-      </c>
-      <c r="R5">
-        <v>0.21543885088</v>
-      </c>
-      <c r="S5">
-        <v>0.1429346532997721</v>
-      </c>
-      <c r="T5">
-        <v>0.1025753284292178</v>
+        <v>0.5638763312309278</v>
       </c>
     </row>
   </sheetData>
